--- a/11-CollaborationList/Lancaster.xlsx
+++ b/11-CollaborationList/Lancaster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050113327749/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89A2524-F21A-C04A-8635-17F43EE26641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D89A2524-F21A-C04A-8635-17F43EE26641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EE7CA1-B99F-1646-AFCE-AABC6497BB68}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="0" windowWidth="30240" windowHeight="19000" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A23F18C5-DD0F-7644-985A-7269B47852C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cockcroft" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Title</t>
   </si>
@@ -115,9 +115,6 @@
     <t>IB</t>
   </si>
   <si>
-    <t>Mr</t>
-  </si>
-  <si>
     <t>Stuart</t>
   </si>
   <si>
@@ -154,22 +151,7 @@
     <t>T.S. Dascalu</t>
   </si>
   <si>
-    <t>S.</t>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Jamison</t>
-  </si>
-  <si>
-    <t>s.jamison@lancaster.ac.uk</t>
-  </si>
-  <si>
-    <t>S. Jamison</t>
   </si>
   <si>
     <t>Cockcroft Institiute for Accelerator Science, Keckwick Ln, Daresbury, Warrington WA4 4AD</t>
@@ -182,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,14 +295,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +597,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -666,13 +640,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -706,7 +678,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -731,8 +702,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}" name="Table1" displayName="Table1" ref="A1:P6" totalsRowShown="0">
-  <autoFilter ref="A1:P6" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}" name="Table1" displayName="Table1" ref="A1:P5" totalsRowShown="0">
+  <autoFilter ref="A1:P5" xr:uid="{D05EE56F-FEAB-4B4D-994F-11C8E42F1139}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{91395D5E-DB89-DE4E-AD47-72EE2567890E}" name="Title"/>
     <tableColumn id="2" xr3:uid="{FB70866C-52B1-D44E-A049-E18F2856C6D2}" name="Name"/>
@@ -1072,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98F3065-14F5-4047-A0B1-B7D22D5F3745}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1170,7 +1141,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1179,7 +1150,7 @@
         <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -1208,7 +1179,7 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1217,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -1225,28 +1196,28 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1255,36 +1226,36 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1293,45 +1264,13 @@
         <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{28018000-E027-F845-B984-1F3F1831D0CC}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>